--- a/administrativo/Levantamento de custos da Wikilab.xlsx
+++ b/administrativo/Levantamento de custos da Wikilab.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -426,8 +426,8 @@
         <v>6</v>
       </c>
       <c r="C4" s="9" t="n">
-        <f aca="false">SUM(C11:C38)*0.025</f>
-        <v>1589.38075</v>
+        <f aca="false">SUM(C11:C38)*0.02</f>
+        <v>2543.0092</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -438,8 +438,8 @@
         <v>8</v>
       </c>
       <c r="C5" s="9" t="n">
-        <f aca="false">SUM(C11:C38)*0.025</f>
-        <v>1589.38075</v>
+        <f aca="false">SUM(C11:C38)*0.02</f>
+        <v>2543.0092</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -450,8 +450,8 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="n">
-        <f aca="false">SUM(C11:C38)*0.025/3</f>
-        <v>529.793583333333</v>
+        <f aca="false">SUM(C11:C38)*0.02/3</f>
+        <v>847.669733333333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,8 +462,8 @@
         <v>12</v>
       </c>
       <c r="C7" s="9" t="n">
-        <f aca="false">SUM(C11:C38)*0.025/3</f>
-        <v>529.793583333333</v>
+        <f aca="false">SUM(C11:C38)*0.02/3</f>
+        <v>847.669733333333</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,8 +474,8 @@
         <v>14</v>
       </c>
       <c r="C8" s="9" t="n">
-        <f aca="false">SUM(C11:C38)*0.025/3</f>
-        <v>529.793583333333</v>
+        <f aca="false">SUM(C11:C38)*0.02/3</f>
+        <v>847.669733333333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,8 +486,8 @@
         <v>16</v>
       </c>
       <c r="C9" s="9" t="n">
-        <f aca="false">SUM(C11:C38)*0.025</f>
-        <v>1589.38075</v>
+        <f aca="false">SUM(C11:C38)*0.02</f>
+        <v>2543.0092</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,7 +503,8 @@
         <v>17</v>
       </c>
       <c r="C11" s="9" t="n">
-        <v>572.52</v>
+        <f aca="false">572.52*2</f>
+        <v>1145.04</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,8 +527,8 @@
         <v>19</v>
       </c>
       <c r="C14" s="9" t="n">
-        <f aca="false">5040.45-712.58</f>
-        <v>4327.87</v>
+        <f aca="false">(5040.45-712.58)*2</f>
+        <v>8655.74</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,8 +551,8 @@
         <v>21</v>
       </c>
       <c r="C17" s="9" t="n">
-        <f aca="false">33400+13143.5</f>
-        <v>46543.5</v>
+        <f aca="false">(33400+13143.5)*2</f>
+        <v>93087</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,7 +575,8 @@
         <v>23</v>
       </c>
       <c r="C20" s="9" t="n">
-        <v>5762.15</v>
+        <f aca="false">5762.15*2</f>
+        <v>11524.3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,7 +599,8 @@
         <v>25</v>
       </c>
       <c r="C23" s="9" t="n">
-        <v>3300</v>
+        <f aca="false">3300*2</f>
+        <v>6600</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -620,8 +623,8 @@
         <v>27</v>
       </c>
       <c r="C26" s="9" t="n">
-        <f aca="false">4124.77-3300</f>
-        <v>824.77</v>
+        <f aca="false">(4124.77-3300)*2</f>
+        <v>1649.54</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -644,7 +647,8 @@
         <v>29</v>
       </c>
       <c r="C29" s="9" t="n">
-        <v>1531.84</v>
+        <f aca="false">1531.84*2</f>
+        <v>3063.68</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -713,7 +717,8 @@
         <v>35</v>
       </c>
       <c r="C38" s="9" t="n">
-        <v>712.58</v>
+        <f aca="false">712.58*2</f>
+        <v>1425.16</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -735,7 +740,7 @@
       </c>
       <c r="C41" s="13" t="n">
         <f aca="false">SUM(C3:C40)</f>
-        <v>69932.753</v>
+        <v>137322.4968</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
